--- a/(WID170715, 17069496) Govardhan Padmanabhan/Assignment 3 - Maze Generation/Evaluation Comparison of Algorithms.xlsx
+++ b/(WID170715, 17069496) Govardhan Padmanabhan/Assignment 3 - Maze Generation/Evaluation Comparison of Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_Workspace\WID3009-2048-AI\(WID170715, 17069496) Govardhan Padmanabhan\Assignment 3 - Maze Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CE0E4-E0E7-4ABA-B490-D3DEC3DFA11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED12EF4D-3A99-4404-8791-7B2D00478EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35370" yWindow="2040" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,13 +160,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -451,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +560,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2">
@@ -656,7 +659,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2">
